--- a/src/files/test.xlsx
+++ b/src/files/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>이름</t>
   </si>
@@ -49,19 +49,13 @@
     <t>변수10</t>
   </si>
   <si>
-    <t>조병규</t>
-  </si>
-  <si>
-    <t>01092309536</t>
+    <t>김민수</t>
+  </si>
+  <si>
+    <t>01095634215</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>노송이</t>
-  </si>
-  <si>
-    <t>01039820305</t>
   </si>
 </sst>
 </file>
@@ -439,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="12" width="10" customWidth="1"/>
@@ -521,44 +515,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
